--- a/data/134/DEUSTATIS/old/Producer price index for industrial products - GP3 codes - 2016.xlsx
+++ b/data/134/DEUSTATIS/old/Producer price index for industrial products - GP3 codes - 2016.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="224">
   <si>
     <t>Producer price index for industrial products: Germany,
 months, product classification (GP2009 2-/3-/4-/5-/6-/
@@ -685,7 +685,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 10:25:01</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:21:54</t>
   </si>
 </sst>
 </file>
@@ -3063,14 +3063,14 @@
       <c r="BR7" t="n" s="10">
         <v>112.6</v>
       </c>
-      <c r="BS7" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT7" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU7" t="s" s="10">
-        <v>25</v>
+      <c r="BS7" t="n" s="10">
+        <v>112.6</v>
+      </c>
+      <c r="BT7" t="n" s="10">
+        <v>104.3</v>
+      </c>
+      <c r="BU7" t="n" s="10">
+        <v>104.2</v>
       </c>
       <c r="BV7" t="s" s="10">
         <v>25</v>
@@ -3287,14 +3287,14 @@
       <c r="BR8" t="n" s="10">
         <v>136.1</v>
       </c>
-      <c r="BS8" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT8" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU8" t="s" s="10">
-        <v>25</v>
+      <c r="BS8" t="n" s="10">
+        <v>133.2</v>
+      </c>
+      <c r="BT8" t="n" s="10">
+        <v>144.7</v>
+      </c>
+      <c r="BU8" t="n" s="10">
+        <v>158.3</v>
       </c>
       <c r="BV8" t="s" s="10">
         <v>25</v>
@@ -3511,14 +3511,14 @@
       <c r="BR9" t="n" s="10">
         <v>124.3</v>
       </c>
-      <c r="BS9" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT9" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU9" t="s" s="10">
-        <v>25</v>
+      <c r="BS9" t="n" s="10">
+        <v>142.9</v>
+      </c>
+      <c r="BT9" t="n" s="10">
+        <v>202.6</v>
+      </c>
+      <c r="BU9" t="n" s="10">
+        <v>266.5</v>
       </c>
       <c r="BV9" t="s" s="10">
         <v>25</v>
@@ -3735,14 +3735,14 @@
       <c r="BR10" t="n" s="10">
         <v>120.2</v>
       </c>
-      <c r="BS10" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT10" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU10" t="s" s="10">
-        <v>25</v>
+      <c r="BS10" t="n" s="10">
+        <v>120.2</v>
+      </c>
+      <c r="BT10" t="n" s="10">
+        <v>119.8</v>
+      </c>
+      <c r="BU10" t="n" s="10">
+        <v>119.6</v>
       </c>
       <c r="BV10" t="s" s="10">
         <v>25</v>
@@ -3959,14 +3959,14 @@
       <c r="BR11" t="n" s="10">
         <v>99.0</v>
       </c>
-      <c r="BS11" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT11" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU11" t="s" s="10">
-        <v>25</v>
+      <c r="BS11" t="n" s="10">
+        <v>98.7</v>
+      </c>
+      <c r="BT11" t="n" s="10">
+        <v>98.7</v>
+      </c>
+      <c r="BU11" t="n" s="10">
+        <v>99.9</v>
       </c>
       <c r="BV11" t="s" s="10">
         <v>25</v>
@@ -4183,14 +4183,14 @@
       <c r="BR12" t="n" s="10">
         <v>109.5</v>
       </c>
-      <c r="BS12" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT12" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU12" t="s" s="10">
-        <v>25</v>
+      <c r="BS12" t="n" s="10">
+        <v>108.1</v>
+      </c>
+      <c r="BT12" t="n" s="10">
+        <v>107.4</v>
+      </c>
+      <c r="BU12" t="n" s="10">
+        <v>107.7</v>
       </c>
       <c r="BV12" t="s" s="10">
         <v>25</v>
@@ -4407,14 +4407,14 @@
       <c r="BR13" t="n" s="10">
         <v>110.3</v>
       </c>
-      <c r="BS13" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT13" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU13" t="s" s="10">
-        <v>25</v>
+      <c r="BS13" t="n" s="10">
+        <v>110.2</v>
+      </c>
+      <c r="BT13" t="n" s="10">
+        <v>110.9</v>
+      </c>
+      <c r="BU13" t="n" s="10">
+        <v>110.9</v>
       </c>
       <c r="BV13" t="s" s="10">
         <v>25</v>
@@ -4631,14 +4631,14 @@
       <c r="BR14" t="n" s="10">
         <v>111.5</v>
       </c>
-      <c r="BS14" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT14" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU14" t="s" s="10">
-        <v>25</v>
+      <c r="BS14" t="n" s="10">
+        <v>111.8</v>
+      </c>
+      <c r="BT14" t="n" s="10">
+        <v>112.1</v>
+      </c>
+      <c r="BU14" t="n" s="10">
+        <v>112.3</v>
       </c>
       <c r="BV14" t="s" s="10">
         <v>25</v>
@@ -4855,14 +4855,14 @@
       <c r="BR15" t="n" s="10">
         <v>135.6</v>
       </c>
-      <c r="BS15" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT15" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU15" t="s" s="10">
-        <v>25</v>
+      <c r="BS15" t="n" s="10">
+        <v>140.1</v>
+      </c>
+      <c r="BT15" t="n" s="10">
+        <v>146.7</v>
+      </c>
+      <c r="BU15" t="n" s="10">
+        <v>153.2</v>
       </c>
       <c r="BV15" t="s" s="10">
         <v>25</v>
@@ -5079,14 +5079,14 @@
       <c r="BR16" t="n" s="10">
         <v>114.3</v>
       </c>
-      <c r="BS16" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT16" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU16" t="s" s="10">
-        <v>25</v>
+      <c r="BS16" t="n" s="10">
+        <v>114.6</v>
+      </c>
+      <c r="BT16" t="n" s="10">
+        <v>116.5</v>
+      </c>
+      <c r="BU16" t="n" s="10">
+        <v>120.0</v>
       </c>
       <c r="BV16" t="s" s="10">
         <v>25</v>
@@ -5303,14 +5303,14 @@
       <c r="BR17" t="n" s="10">
         <v>107.2</v>
       </c>
-      <c r="BS17" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT17" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU17" t="s" s="10">
-        <v>25</v>
+      <c r="BS17" t="n" s="10">
+        <v>108.2</v>
+      </c>
+      <c r="BT17" t="n" s="10">
+        <v>112.8</v>
+      </c>
+      <c r="BU17" t="n" s="10">
+        <v>115.2</v>
       </c>
       <c r="BV17" t="s" s="10">
         <v>25</v>
@@ -5527,14 +5527,14 @@
       <c r="BR18" t="n" s="10">
         <v>114.4</v>
       </c>
-      <c r="BS18" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT18" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU18" t="s" s="10">
-        <v>25</v>
+      <c r="BS18" t="n" s="10">
+        <v>115.2</v>
+      </c>
+      <c r="BT18" t="n" s="10">
+        <v>115.3</v>
+      </c>
+      <c r="BU18" t="n" s="10">
+        <v>115.6</v>
       </c>
       <c r="BV18" t="s" s="10">
         <v>25</v>
@@ -5751,14 +5751,14 @@
       <c r="BR19" t="n" s="10">
         <v>104.1</v>
       </c>
-      <c r="BS19" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT19" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU19" t="s" s="10">
-        <v>25</v>
+      <c r="BS19" t="n" s="10">
+        <v>104.2</v>
+      </c>
+      <c r="BT19" t="n" s="10">
+        <v>105.2</v>
+      </c>
+      <c r="BU19" t="n" s="10">
+        <v>105.7</v>
       </c>
       <c r="BV19" t="s" s="10">
         <v>25</v>
@@ -5975,14 +5975,14 @@
       <c r="BR20" t="n" s="10">
         <v>116.3</v>
       </c>
-      <c r="BS20" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT20" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU20" t="s" s="10">
-        <v>25</v>
+      <c r="BS20" t="n" s="10">
+        <v>118.6</v>
+      </c>
+      <c r="BT20" t="n" s="10">
+        <v>121.2</v>
+      </c>
+      <c r="BU20" t="n" s="10">
+        <v>125.6</v>
       </c>
       <c r="BV20" t="s" s="10">
         <v>25</v>
@@ -6199,14 +6199,14 @@
       <c r="BR21" t="n" s="10">
         <v>109.1</v>
       </c>
-      <c r="BS21" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT21" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU21" t="s" s="10">
-        <v>25</v>
+      <c r="BS21" t="n" s="10">
+        <v>109.2</v>
+      </c>
+      <c r="BT21" t="n" s="10">
+        <v>109.6</v>
+      </c>
+      <c r="BU21" t="n" s="10">
+        <v>109.6</v>
       </c>
       <c r="BV21" t="s" s="10">
         <v>25</v>
@@ -6423,14 +6423,14 @@
       <c r="BR22" t="n" s="10">
         <v>114.9</v>
       </c>
-      <c r="BS22" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT22" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU22" t="s" s="10">
-        <v>25</v>
+      <c r="BS22" t="n" s="10">
+        <v>114.9</v>
+      </c>
+      <c r="BT22" t="n" s="10">
+        <v>115.3</v>
+      </c>
+      <c r="BU22" t="n" s="10">
+        <v>115.3</v>
       </c>
       <c r="BV22" t="s" s="10">
         <v>25</v>
@@ -6647,14 +6647,14 @@
       <c r="BR23" t="n" s="10">
         <v>106.8</v>
       </c>
-      <c r="BS23" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT23" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU23" t="s" s="10">
-        <v>25</v>
+      <c r="BS23" t="n" s="10">
+        <v>107.4</v>
+      </c>
+      <c r="BT23" t="n" s="10">
+        <v>108.7</v>
+      </c>
+      <c r="BU23" t="n" s="10">
+        <v>109.5</v>
       </c>
       <c r="BV23" t="s" s="10">
         <v>25</v>
@@ -6871,14 +6871,14 @@
       <c r="BR24" t="n" s="10">
         <v>102.1</v>
       </c>
-      <c r="BS24" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT24" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU24" t="s" s="10">
-        <v>25</v>
+      <c r="BS24" t="n" s="10">
+        <v>102.2</v>
+      </c>
+      <c r="BT24" t="n" s="10">
+        <v>102.8</v>
+      </c>
+      <c r="BU24" t="n" s="10">
+        <v>103.5</v>
       </c>
       <c r="BV24" t="s" s="10">
         <v>25</v>
@@ -7095,14 +7095,14 @@
       <c r="BR25" t="n" s="10">
         <v>106.5</v>
       </c>
-      <c r="BS25" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT25" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU25" t="s" s="10">
-        <v>25</v>
+      <c r="BS25" t="n" s="10">
+        <v>106.6</v>
+      </c>
+      <c r="BT25" t="n" s="10">
+        <v>106.8</v>
+      </c>
+      <c r="BU25" t="n" s="10">
+        <v>107.2</v>
       </c>
       <c r="BV25" t="s" s="10">
         <v>25</v>
@@ -7319,14 +7319,14 @@
       <c r="BR26" t="n" s="10">
         <v>106.5</v>
       </c>
-      <c r="BS26" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT26" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU26" t="s" s="10">
-        <v>25</v>
+      <c r="BS26" t="n" s="10">
+        <v>107.2</v>
+      </c>
+      <c r="BT26" t="n" s="10">
+        <v>107.6</v>
+      </c>
+      <c r="BU26" t="n" s="10">
+        <v>107.8</v>
       </c>
       <c r="BV26" t="s" s="10">
         <v>25</v>
@@ -7543,14 +7543,14 @@
       <c r="BR27" t="n" s="10">
         <v>105.4</v>
       </c>
-      <c r="BS27" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT27" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU27" t="s" s="10">
-        <v>25</v>
+      <c r="BS27" t="n" s="10">
+        <v>105.5</v>
+      </c>
+      <c r="BT27" t="n" s="10">
+        <v>105.9</v>
+      </c>
+      <c r="BU27" t="n" s="10">
+        <v>106.1</v>
       </c>
       <c r="BV27" t="s" s="10">
         <v>25</v>
@@ -7767,14 +7767,14 @@
       <c r="BR28" t="n" s="10">
         <v>106.6</v>
       </c>
-      <c r="BS28" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT28" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU28" t="s" s="10">
-        <v>25</v>
+      <c r="BS28" t="n" s="10">
+        <v>106.6</v>
+      </c>
+      <c r="BT28" t="n" s="10">
+        <v>106.6</v>
+      </c>
+      <c r="BU28" t="n" s="10">
+        <v>106.6</v>
       </c>
       <c r="BV28" t="s" s="10">
         <v>25</v>
@@ -7991,14 +7991,14 @@
       <c r="BR29" t="n" s="10">
         <v>101.6</v>
       </c>
-      <c r="BS29" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT29" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU29" t="s" s="10">
-        <v>25</v>
+      <c r="BS29" t="n" s="10">
+        <v>101.6</v>
+      </c>
+      <c r="BT29" t="n" s="10">
+        <v>102.4</v>
+      </c>
+      <c r="BU29" t="n" s="10">
+        <v>103.0</v>
       </c>
       <c r="BV29" t="s" s="10">
         <v>25</v>
@@ -8215,14 +8215,14 @@
       <c r="BR30" t="n" s="10">
         <v>107.4</v>
       </c>
-      <c r="BS30" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT30" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU30" t="s" s="10">
-        <v>25</v>
+      <c r="BS30" t="n" s="10">
+        <v>107.4</v>
+      </c>
+      <c r="BT30" t="n" s="10">
+        <v>107.6</v>
+      </c>
+      <c r="BU30" t="n" s="10">
+        <v>108.2</v>
       </c>
       <c r="BV30" t="s" s="10">
         <v>25</v>
@@ -8439,14 +8439,14 @@
       <c r="BR31" t="n" s="10">
         <v>194.8</v>
       </c>
-      <c r="BS31" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT31" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU31" t="s" s="10">
-        <v>25</v>
+      <c r="BS31" t="n" s="10">
+        <v>188.8</v>
+      </c>
+      <c r="BT31" t="n" s="10">
+        <v>175.9</v>
+      </c>
+      <c r="BU31" t="n" s="10">
+        <v>164.9</v>
       </c>
       <c r="BV31" t="s" s="10">
         <v>25</v>
@@ -8663,14 +8663,14 @@
       <c r="BR32" t="n" s="10">
         <v>132.8</v>
       </c>
-      <c r="BS32" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT32" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU32" t="s" s="10">
-        <v>25</v>
+      <c r="BS32" t="n" s="10">
+        <v>134.6</v>
+      </c>
+      <c r="BT32" t="n" s="10">
+        <v>134.6</v>
+      </c>
+      <c r="BU32" t="n" s="10">
+        <v>134.5</v>
       </c>
       <c r="BV32" t="s" s="10">
         <v>25</v>
@@ -8887,14 +8887,14 @@
       <c r="BR33" t="n" s="10">
         <v>115.4</v>
       </c>
-      <c r="BS33" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT33" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU33" t="s" s="10">
-        <v>25</v>
+      <c r="BS33" t="n" s="10">
+        <v>118.3</v>
+      </c>
+      <c r="BT33" t="n" s="10">
+        <v>120.7</v>
+      </c>
+      <c r="BU33" t="n" s="10">
+        <v>125.6</v>
       </c>
       <c r="BV33" t="s" s="10">
         <v>25</v>
@@ -9111,14 +9111,14 @@
       <c r="BR34" t="n" s="10">
         <v>110.2</v>
       </c>
-      <c r="BS34" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT34" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU34" t="s" s="10">
-        <v>25</v>
+      <c r="BS34" t="n" s="10">
+        <v>111.7</v>
+      </c>
+      <c r="BT34" t="n" s="10">
+        <v>113.0</v>
+      </c>
+      <c r="BU34" t="n" s="10">
+        <v>115.2</v>
       </c>
       <c r="BV34" t="s" s="10">
         <v>25</v>
@@ -9335,14 +9335,14 @@
       <c r="BR35" t="n" s="10">
         <v>99.4</v>
       </c>
-      <c r="BS35" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT35" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU35" t="s" s="10">
-        <v>25</v>
+      <c r="BS35" t="n" s="10">
+        <v>99.6</v>
+      </c>
+      <c r="BT35" t="n" s="10">
+        <v>100.9</v>
+      </c>
+      <c r="BU35" t="n" s="10">
+        <v>102.2</v>
       </c>
       <c r="BV35" t="s" s="10">
         <v>25</v>
@@ -9559,14 +9559,14 @@
       <c r="BR36" t="n" s="10">
         <v>95.6</v>
       </c>
-      <c r="BS36" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT36" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU36" t="s" s="10">
-        <v>25</v>
+      <c r="BS36" t="n" s="10">
+        <v>95.1</v>
+      </c>
+      <c r="BT36" t="n" s="10">
+        <v>95.1</v>
+      </c>
+      <c r="BU36" t="n" s="10">
+        <v>97.3</v>
       </c>
       <c r="BV36" t="s" s="10">
         <v>25</v>
@@ -9783,14 +9783,14 @@
       <c r="BR37" t="n" s="10">
         <v>102.0</v>
       </c>
-      <c r="BS37" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT37" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU37" t="s" s="10">
-        <v>25</v>
+      <c r="BS37" t="n" s="10">
+        <v>102.0</v>
+      </c>
+      <c r="BT37" t="n" s="10">
+        <v>111.6</v>
+      </c>
+      <c r="BU37" t="n" s="10">
+        <v>115.7</v>
       </c>
       <c r="BV37" t="s" s="10">
         <v>25</v>
@@ -10007,14 +10007,14 @@
       <c r="BR38" t="n" s="10">
         <v>118.5</v>
       </c>
-      <c r="BS38" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT38" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU38" t="s" s="10">
-        <v>25</v>
+      <c r="BS38" t="n" s="10">
+        <v>120.2</v>
+      </c>
+      <c r="BT38" t="n" s="10">
+        <v>131.0</v>
+      </c>
+      <c r="BU38" t="n" s="10">
+        <v>133.3</v>
       </c>
       <c r="BV38" t="s" s="10">
         <v>25</v>
@@ -10231,14 +10231,14 @@
       <c r="BR39" t="n" s="10">
         <v>117.7</v>
       </c>
-      <c r="BS39" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT39" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU39" t="s" s="10">
-        <v>25</v>
+      <c r="BS39" t="n" s="10">
+        <v>118.6</v>
+      </c>
+      <c r="BT39" t="n" s="10">
+        <v>120.0</v>
+      </c>
+      <c r="BU39" t="n" s="10">
+        <v>123.3</v>
       </c>
       <c r="BV39" t="s" s="10">
         <v>25</v>
@@ -10455,14 +10455,14 @@
       <c r="BR40" t="n" s="10">
         <v>107.6</v>
       </c>
-      <c r="BS40" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT40" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU40" t="s" s="10">
-        <v>25</v>
+      <c r="BS40" t="n" s="10">
+        <v>107.9</v>
+      </c>
+      <c r="BT40" t="n" s="10">
+        <v>110.3</v>
+      </c>
+      <c r="BU40" t="n" s="10">
+        <v>110.7</v>
       </c>
       <c r="BV40" t="s" s="10">
         <v>25</v>
@@ -10679,14 +10679,14 @@
       <c r="BR41" t="n" s="10">
         <v>112.2</v>
       </c>
-      <c r="BS41" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT41" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU41" t="s" s="10">
-        <v>25</v>
+      <c r="BS41" t="n" s="10">
+        <v>112.6</v>
+      </c>
+      <c r="BT41" t="n" s="10">
+        <v>113.3</v>
+      </c>
+      <c r="BU41" t="n" s="10">
+        <v>113.9</v>
       </c>
       <c r="BV41" t="s" s="10">
         <v>25</v>
@@ -10903,14 +10903,14 @@
       <c r="BR42" t="n" s="10">
         <v>107.4</v>
       </c>
-      <c r="BS42" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT42" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU42" t="s" s="10">
-        <v>25</v>
+      <c r="BS42" t="n" s="10">
+        <v>108.0</v>
+      </c>
+      <c r="BT42" t="n" s="10">
+        <v>109.7</v>
+      </c>
+      <c r="BU42" t="n" s="10">
+        <v>109.5</v>
       </c>
       <c r="BV42" t="s" s="10">
         <v>25</v>
@@ -11127,14 +11127,14 @@
       <c r="BR43" t="n" s="10">
         <v>116.6</v>
       </c>
-      <c r="BS43" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT43" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU43" t="s" s="10">
-        <v>25</v>
+      <c r="BS43" t="n" s="10">
+        <v>119.3</v>
+      </c>
+      <c r="BT43" t="n" s="10">
+        <v>125.1</v>
+      </c>
+      <c r="BU43" t="n" s="10">
+        <v>137.3</v>
       </c>
       <c r="BV43" t="s" s="10">
         <v>25</v>
@@ -11351,14 +11351,14 @@
       <c r="BR44" t="n" s="10">
         <v>105.7</v>
       </c>
-      <c r="BS44" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT44" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU44" t="s" s="10">
-        <v>25</v>
+      <c r="BS44" t="n" s="10">
+        <v>106.4</v>
+      </c>
+      <c r="BT44" t="n" s="10">
+        <v>106.9</v>
+      </c>
+      <c r="BU44" t="n" s="10">
+        <v>110.1</v>
       </c>
       <c r="BV44" t="s" s="10">
         <v>25</v>
@@ -11575,14 +11575,14 @@
       <c r="BR45" t="n" s="10">
         <v>109.3</v>
       </c>
-      <c r="BS45" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT45" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU45" t="s" s="10">
-        <v>25</v>
+      <c r="BS45" t="n" s="10">
+        <v>109.3</v>
+      </c>
+      <c r="BT45" t="n" s="10">
+        <v>112.7</v>
+      </c>
+      <c r="BU45" t="n" s="10">
+        <v>113.8</v>
       </c>
       <c r="BV45" t="s" s="10">
         <v>25</v>
@@ -11799,14 +11799,14 @@
       <c r="BR46" t="n" s="10">
         <v>105.7</v>
       </c>
-      <c r="BS46" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT46" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU46" t="s" s="10">
-        <v>25</v>
+      <c r="BS46" t="n" s="10">
+        <v>105.8</v>
+      </c>
+      <c r="BT46" t="n" s="10">
+        <v>105.6</v>
+      </c>
+      <c r="BU46" t="n" s="10">
+        <v>105.4</v>
       </c>
       <c r="BV46" t="s" s="10">
         <v>25</v>
@@ -12023,14 +12023,14 @@
       <c r="BR47" t="n" s="10">
         <v>107.7</v>
       </c>
-      <c r="BS47" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT47" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU47" t="s" s="10">
-        <v>25</v>
+      <c r="BS47" t="n" s="10">
+        <v>108.4</v>
+      </c>
+      <c r="BT47" t="n" s="10">
+        <v>110.1</v>
+      </c>
+      <c r="BU47" t="n" s="10">
+        <v>110.4</v>
       </c>
       <c r="BV47" t="s" s="10">
         <v>25</v>
@@ -12247,14 +12247,14 @@
       <c r="BR48" t="n" s="10">
         <v>111.2</v>
       </c>
-      <c r="BS48" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT48" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU48" t="s" s="10">
-        <v>25</v>
+      <c r="BS48" t="n" s="10">
+        <v>111.9</v>
+      </c>
+      <c r="BT48" t="n" s="10">
+        <v>112.6</v>
+      </c>
+      <c r="BU48" t="n" s="10">
+        <v>113.0</v>
       </c>
       <c r="BV48" t="s" s="10">
         <v>25</v>
@@ -12471,14 +12471,14 @@
       <c r="BR49" t="n" s="10">
         <v>111.9</v>
       </c>
-      <c r="BS49" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT49" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU49" t="s" s="10">
-        <v>25</v>
+      <c r="BS49" t="n" s="10">
+        <v>112.9</v>
+      </c>
+      <c r="BT49" t="n" s="10">
+        <v>113.9</v>
+      </c>
+      <c r="BU49" t="n" s="10">
+        <v>115.0</v>
       </c>
       <c r="BV49" t="s" s="10">
         <v>25</v>
@@ -12695,14 +12695,14 @@
       <c r="BR50" t="n" s="10">
         <v>103.9</v>
       </c>
-      <c r="BS50" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT50" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU50" t="s" s="10">
-        <v>25</v>
+      <c r="BS50" t="n" s="10">
+        <v>105.2</v>
+      </c>
+      <c r="BT50" t="n" s="10">
+        <v>106.1</v>
+      </c>
+      <c r="BU50" t="n" s="10">
+        <v>106.1</v>
       </c>
       <c r="BV50" t="s" s="10">
         <v>25</v>
@@ -12919,14 +12919,14 @@
       <c r="BR51" t="n" s="10">
         <v>110.7</v>
       </c>
-      <c r="BS51" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT51" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU51" t="s" s="10">
-        <v>25</v>
+      <c r="BS51" t="n" s="10">
+        <v>110.2</v>
+      </c>
+      <c r="BT51" t="n" s="10">
+        <v>110.3</v>
+      </c>
+      <c r="BU51" t="n" s="10">
+        <v>110.3</v>
       </c>
       <c r="BV51" t="s" s="10">
         <v>25</v>
@@ -13143,14 +13143,14 @@
       <c r="BR52" t="n" s="10">
         <v>113.6</v>
       </c>
-      <c r="BS52" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT52" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU52" t="s" s="10">
-        <v>25</v>
+      <c r="BS52" t="n" s="10">
+        <v>113.8</v>
+      </c>
+      <c r="BT52" t="n" s="10">
+        <v>114.2</v>
+      </c>
+      <c r="BU52" t="n" s="10">
+        <v>114.2</v>
       </c>
       <c r="BV52" t="s" s="10">
         <v>25</v>
@@ -13367,14 +13367,14 @@
       <c r="BR53" t="n" s="10">
         <v>114.4</v>
       </c>
-      <c r="BS53" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT53" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU53" t="s" s="10">
-        <v>25</v>
+      <c r="BS53" t="n" s="10">
+        <v>114.0</v>
+      </c>
+      <c r="BT53" t="n" s="10">
+        <v>113.8</v>
+      </c>
+      <c r="BU53" t="n" s="10">
+        <v>113.7</v>
       </c>
       <c r="BV53" t="s" s="10">
         <v>25</v>
@@ -13591,14 +13591,14 @@
       <c r="BR54" t="n" s="10">
         <v>118.4</v>
       </c>
-      <c r="BS54" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT54" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU54" t="s" s="10">
-        <v>25</v>
+      <c r="BS54" t="n" s="10">
+        <v>119.0</v>
+      </c>
+      <c r="BT54" t="n" s="10">
+        <v>119.2</v>
+      </c>
+      <c r="BU54" t="n" s="10">
+        <v>119.4</v>
       </c>
       <c r="BV54" t="s" s="10">
         <v>25</v>
@@ -13815,14 +13815,14 @@
       <c r="BR55" t="n" s="10">
         <v>105.9</v>
       </c>
-      <c r="BS55" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT55" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU55" t="s" s="10">
-        <v>25</v>
+      <c r="BS55" t="n" s="10">
+        <v>106.0</v>
+      </c>
+      <c r="BT55" t="n" s="10">
+        <v>107.3</v>
+      </c>
+      <c r="BU55" t="n" s="10">
+        <v>107.7</v>
       </c>
       <c r="BV55" t="s" s="10">
         <v>25</v>
@@ -14039,14 +14039,14 @@
       <c r="BR56" t="n" s="10">
         <v>110.7</v>
       </c>
-      <c r="BS56" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT56" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU56" t="s" s="10">
-        <v>25</v>
+      <c r="BS56" t="n" s="10">
+        <v>111.5</v>
+      </c>
+      <c r="BT56" t="n" s="10">
+        <v>111.8</v>
+      </c>
+      <c r="BU56" t="n" s="10">
+        <v>112.3</v>
       </c>
       <c r="BV56" t="s" s="10">
         <v>25</v>
@@ -14263,14 +14263,14 @@
       <c r="BR57" t="n" s="10">
         <v>161.6</v>
       </c>
-      <c r="BS57" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT57" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU57" t="s" s="10">
-        <v>25</v>
+      <c r="BS57" t="n" s="10">
+        <v>163.5</v>
+      </c>
+      <c r="BT57" t="n" s="10">
+        <v>161.2</v>
+      </c>
+      <c r="BU57" t="n" s="10">
+        <v>161.8</v>
       </c>
       <c r="BV57" t="s" s="10">
         <v>25</v>
@@ -14487,14 +14487,14 @@
       <c r="BR58" t="n" s="10">
         <v>131.8</v>
       </c>
-      <c r="BS58" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT58" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU58" t="s" s="10">
-        <v>25</v>
+      <c r="BS58" t="n" s="10">
+        <v>134.5</v>
+      </c>
+      <c r="BT58" t="n" s="10">
+        <v>136.9</v>
+      </c>
+      <c r="BU58" t="n" s="10">
+        <v>137.2</v>
       </c>
       <c r="BV58" t="s" s="10">
         <v>25</v>
@@ -14711,14 +14711,14 @@
       <c r="BR59" t="n" s="10">
         <v>147.9</v>
       </c>
-      <c r="BS59" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT59" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU59" t="s" s="10">
-        <v>25</v>
+      <c r="BS59" t="n" s="10">
+        <v>153.4</v>
+      </c>
+      <c r="BT59" t="n" s="10">
+        <v>156.0</v>
+      </c>
+      <c r="BU59" t="n" s="10">
+        <v>158.7</v>
       </c>
       <c r="BV59" t="s" s="10">
         <v>25</v>
@@ -14935,14 +14935,14 @@
       <c r="BR60" t="n" s="10">
         <v>127.9</v>
       </c>
-      <c r="BS60" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT60" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU60" t="s" s="10">
-        <v>25</v>
+      <c r="BS60" t="n" s="10">
+        <v>128.8</v>
+      </c>
+      <c r="BT60" t="n" s="10">
+        <v>137.1</v>
+      </c>
+      <c r="BU60" t="n" s="10">
+        <v>138.4</v>
       </c>
       <c r="BV60" t="s" s="10">
         <v>25</v>
@@ -15159,14 +15159,14 @@
       <c r="BR61" t="n" s="10">
         <v>108.8</v>
       </c>
-      <c r="BS61" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT61" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU61" t="s" s="10">
-        <v>25</v>
+      <c r="BS61" t="n" s="10">
+        <v>109.7</v>
+      </c>
+      <c r="BT61" t="n" s="10">
+        <v>111.1</v>
+      </c>
+      <c r="BU61" t="n" s="10">
+        <v>111.6</v>
       </c>
       <c r="BV61" t="s" s="10">
         <v>25</v>
@@ -15383,14 +15383,14 @@
       <c r="BR62" t="n" s="10">
         <v>122.4</v>
       </c>
-      <c r="BS62" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT62" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU62" t="s" s="10">
-        <v>25</v>
+      <c r="BS62" t="n" s="10">
+        <v>124.3</v>
+      </c>
+      <c r="BT62" t="n" s="10">
+        <v>125.5</v>
+      </c>
+      <c r="BU62" t="n" s="10">
+        <v>126.9</v>
       </c>
       <c r="BV62" t="s" s="10">
         <v>25</v>
@@ -15607,14 +15607,14 @@
       <c r="BR63" t="n" s="10">
         <v>119.5</v>
       </c>
-      <c r="BS63" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT63" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU63" t="s" s="10">
-        <v>25</v>
+      <c r="BS63" t="n" s="10">
+        <v>120.6</v>
+      </c>
+      <c r="BT63" t="n" s="10">
+        <v>121.2</v>
+      </c>
+      <c r="BU63" t="n" s="10">
+        <v>121.6</v>
       </c>
       <c r="BV63" t="s" s="10">
         <v>25</v>
@@ -15831,14 +15831,14 @@
       <c r="BR64" t="n" s="10">
         <v>116.0</v>
       </c>
-      <c r="BS64" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT64" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU64" t="s" s="10">
-        <v>25</v>
+      <c r="BS64" t="n" s="10">
+        <v>116.3</v>
+      </c>
+      <c r="BT64" t="n" s="10">
+        <v>116.3</v>
+      </c>
+      <c r="BU64" t="n" s="10">
+        <v>117.0</v>
       </c>
       <c r="BV64" t="s" s="10">
         <v>25</v>
@@ -16055,14 +16055,14 @@
       <c r="BR65" t="n" s="10">
         <v>114.7</v>
       </c>
-      <c r="BS65" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT65" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU65" t="s" s="10">
-        <v>25</v>
+      <c r="BS65" t="n" s="10">
+        <v>114.9</v>
+      </c>
+      <c r="BT65" t="n" s="10">
+        <v>116.5</v>
+      </c>
+      <c r="BU65" t="n" s="10">
+        <v>116.7</v>
       </c>
       <c r="BV65" t="s" s="10">
         <v>25</v>
@@ -16279,14 +16279,14 @@
       <c r="BR66" t="n" s="10">
         <v>108.3</v>
       </c>
-      <c r="BS66" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT66" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU66" t="s" s="10">
-        <v>25</v>
+      <c r="BS66" t="n" s="10">
+        <v>108.1</v>
+      </c>
+      <c r="BT66" t="n" s="10">
+        <v>109.7</v>
+      </c>
+      <c r="BU66" t="n" s="10">
+        <v>110.4</v>
       </c>
       <c r="BV66" t="s" s="10">
         <v>25</v>
@@ -16503,14 +16503,14 @@
       <c r="BR67" t="n" s="10">
         <v>107.8</v>
       </c>
-      <c r="BS67" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT67" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU67" t="s" s="10">
-        <v>25</v>
+      <c r="BS67" t="n" s="10">
+        <v>108.4</v>
+      </c>
+      <c r="BT67" t="n" s="10">
+        <v>108.7</v>
+      </c>
+      <c r="BU67" t="n" s="10">
+        <v>109.1</v>
       </c>
       <c r="BV67" t="s" s="10">
         <v>25</v>
@@ -16727,14 +16727,14 @@
       <c r="BR68" t="n" s="10">
         <v>115.1</v>
       </c>
-      <c r="BS68" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT68" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU68" t="s" s="10">
-        <v>25</v>
+      <c r="BS68" t="n" s="10">
+        <v>116.0</v>
+      </c>
+      <c r="BT68" t="n" s="10">
+        <v>117.2</v>
+      </c>
+      <c r="BU68" t="n" s="10">
+        <v>117.9</v>
       </c>
       <c r="BV68" t="s" s="10">
         <v>25</v>
@@ -16951,14 +16951,14 @@
       <c r="BR69" t="n" s="10">
         <v>79.1</v>
       </c>
-      <c r="BS69" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT69" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU69" t="s" s="10">
-        <v>25</v>
+      <c r="BS69" t="n" s="10">
+        <v>79.7</v>
+      </c>
+      <c r="BT69" t="n" s="10">
+        <v>80.3</v>
+      </c>
+      <c r="BU69" t="n" s="10">
+        <v>81.0</v>
       </c>
       <c r="BV69" t="s" s="10">
         <v>25</v>
@@ -17175,14 +17175,14 @@
       <c r="BR70" t="n" s="10">
         <v>85.8</v>
       </c>
-      <c r="BS70" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT70" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU70" t="s" s="10">
-        <v>25</v>
+      <c r="BS70" t="n" s="10">
+        <v>86.3</v>
+      </c>
+      <c r="BT70" t="n" s="10">
+        <v>87.0</v>
+      </c>
+      <c r="BU70" t="n" s="10">
+        <v>87.5</v>
       </c>
       <c r="BV70" t="s" s="10">
         <v>25</v>
@@ -17399,14 +17399,14 @@
       <c r="BR71" t="n" s="10">
         <v>99.7</v>
       </c>
-      <c r="BS71" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT71" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU71" t="s" s="10">
-        <v>25</v>
+      <c r="BS71" t="n" s="10">
+        <v>100.0</v>
+      </c>
+      <c r="BT71" t="n" s="10">
+        <v>100.1</v>
+      </c>
+      <c r="BU71" t="n" s="10">
+        <v>100.8</v>
       </c>
       <c r="BV71" t="s" s="10">
         <v>25</v>
@@ -17623,14 +17623,14 @@
       <c r="BR72" t="n" s="10">
         <v>104.4</v>
       </c>
-      <c r="BS72" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT72" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU72" t="s" s="10">
-        <v>25</v>
+      <c r="BS72" t="n" s="10">
+        <v>104.7</v>
+      </c>
+      <c r="BT72" t="n" s="10">
+        <v>104.7</v>
+      </c>
+      <c r="BU72" t="n" s="10">
+        <v>104.8</v>
       </c>
       <c r="BV72" t="s" s="10">
         <v>25</v>
@@ -17847,14 +17847,14 @@
       <c r="BR73" t="n" s="10">
         <v>107.9</v>
       </c>
-      <c r="BS73" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT73" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU73" t="s" s="10">
-        <v>25</v>
+      <c r="BS73" t="n" s="10">
+        <v>108.0</v>
+      </c>
+      <c r="BT73" t="n" s="10">
+        <v>108.2</v>
+      </c>
+      <c r="BU73" t="n" s="10">
+        <v>108.3</v>
       </c>
       <c r="BV73" t="s" s="10">
         <v>25</v>
@@ -18071,14 +18071,14 @@
       <c r="BR74" t="n" s="10">
         <v>100.2</v>
       </c>
-      <c r="BS74" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT74" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU74" t="s" s="10">
-        <v>25</v>
+      <c r="BS74" t="n" s="10">
+        <v>100.2</v>
+      </c>
+      <c r="BT74" t="n" s="10">
+        <v>100.2</v>
+      </c>
+      <c r="BU74" t="n" s="10">
+        <v>100.3</v>
       </c>
       <c r="BV74" t="s" s="10">
         <v>25</v>
@@ -18295,14 +18295,14 @@
       <c r="BR75" t="n" s="10">
         <v>104.9</v>
       </c>
-      <c r="BS75" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT75" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU75" t="s" s="10">
-        <v>25</v>
+      <c r="BS75" t="n" s="10">
+        <v>105.6</v>
+      </c>
+      <c r="BT75" t="n" s="10">
+        <v>105.6</v>
+      </c>
+      <c r="BU75" t="n" s="10">
+        <v>105.7</v>
       </c>
       <c r="BV75" t="s" s="10">
         <v>25</v>
@@ -18519,14 +18519,14 @@
       <c r="BR76" t="n" s="10">
         <v>109.4</v>
       </c>
-      <c r="BS76" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT76" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU76" t="s" s="10">
-        <v>25</v>
+      <c r="BS76" t="n" s="10">
+        <v>109.7</v>
+      </c>
+      <c r="BT76" t="n" s="10">
+        <v>110.6</v>
+      </c>
+      <c r="BU76" t="n" s="10">
+        <v>110.8</v>
       </c>
       <c r="BV76" t="s" s="10">
         <v>25</v>
@@ -18743,14 +18743,14 @@
       <c r="BR77" t="n" s="10">
         <v>105.9</v>
       </c>
-      <c r="BS77" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT77" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU77" t="s" s="10">
-        <v>25</v>
+      <c r="BS77" t="n" s="10">
+        <v>107.6</v>
+      </c>
+      <c r="BT77" t="n" s="10">
+        <v>109.5</v>
+      </c>
+      <c r="BU77" t="n" s="10">
+        <v>109.2</v>
       </c>
       <c r="BV77" t="s" s="10">
         <v>25</v>
@@ -18967,14 +18967,14 @@
       <c r="BR78" t="n" s="10">
         <v>114.1</v>
       </c>
-      <c r="BS78" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT78" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU78" t="s" s="10">
-        <v>25</v>
+      <c r="BS78" t="n" s="10">
+        <v>115.1</v>
+      </c>
+      <c r="BT78" t="n" s="10">
+        <v>116.0</v>
+      </c>
+      <c r="BU78" t="n" s="10">
+        <v>117.3</v>
       </c>
       <c r="BV78" t="s" s="10">
         <v>25</v>
@@ -19191,14 +19191,14 @@
       <c r="BR79" t="n" s="10">
         <v>102.1</v>
       </c>
-      <c r="BS79" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT79" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU79" t="s" s="10">
-        <v>25</v>
+      <c r="BS79" t="n" s="10">
+        <v>102.1</v>
+      </c>
+      <c r="BT79" t="n" s="10">
+        <v>102.8</v>
+      </c>
+      <c r="BU79" t="n" s="10">
+        <v>103.0</v>
       </c>
       <c r="BV79" t="s" s="10">
         <v>25</v>
@@ -19415,14 +19415,14 @@
       <c r="BR80" t="n" s="10">
         <v>108.7</v>
       </c>
-      <c r="BS80" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT80" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU80" t="s" s="10">
-        <v>25</v>
+      <c r="BS80" t="n" s="10">
+        <v>109.1</v>
+      </c>
+      <c r="BT80" t="n" s="10">
+        <v>109.4</v>
+      </c>
+      <c r="BU80" t="n" s="10">
+        <v>109.8</v>
       </c>
       <c r="BV80" t="s" s="10">
         <v>25</v>
@@ -19639,14 +19639,14 @@
       <c r="BR81" t="n" s="10">
         <v>105.1</v>
       </c>
-      <c r="BS81" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT81" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU81" t="s" s="10">
-        <v>25</v>
+      <c r="BS81" t="n" s="10">
+        <v>105.4</v>
+      </c>
+      <c r="BT81" t="n" s="10">
+        <v>105.6</v>
+      </c>
+      <c r="BU81" t="n" s="10">
+        <v>105.8</v>
       </c>
       <c r="BV81" t="s" s="10">
         <v>25</v>
@@ -19863,14 +19863,14 @@
       <c r="BR82" t="n" s="10">
         <v>108.0</v>
       </c>
-      <c r="BS82" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT82" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU82" t="s" s="10">
-        <v>25</v>
+      <c r="BS82" t="n" s="10">
+        <v>108.4</v>
+      </c>
+      <c r="BT82" t="n" s="10">
+        <v>108.8</v>
+      </c>
+      <c r="BU82" t="n" s="10">
+        <v>109.0</v>
       </c>
       <c r="BV82" t="s" s="10">
         <v>25</v>
@@ -20087,14 +20087,14 @@
       <c r="BR83" t="n" s="10">
         <v>110.0</v>
       </c>
-      <c r="BS83" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT83" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU83" t="s" s="10">
-        <v>25</v>
+      <c r="BS83" t="n" s="10">
+        <v>110.6</v>
+      </c>
+      <c r="BT83" t="n" s="10">
+        <v>110.9</v>
+      </c>
+      <c r="BU83" t="n" s="10">
+        <v>111.1</v>
       </c>
       <c r="BV83" t="s" s="10">
         <v>25</v>
@@ -20311,14 +20311,14 @@
       <c r="BR84" t="n" s="10">
         <v>114.5</v>
       </c>
-      <c r="BS84" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT84" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU84" t="s" s="10">
-        <v>25</v>
+      <c r="BS84" t="n" s="10">
+        <v>115.5</v>
+      </c>
+      <c r="BT84" t="n" s="10">
+        <v>116.4</v>
+      </c>
+      <c r="BU84" t="n" s="10">
+        <v>117.3</v>
       </c>
       <c r="BV84" t="s" s="10">
         <v>25</v>
@@ -20535,14 +20535,14 @@
       <c r="BR85" t="n" s="10">
         <v>110.2</v>
       </c>
-      <c r="BS85" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT85" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU85" t="s" s="10">
-        <v>25</v>
+      <c r="BS85" t="n" s="10">
+        <v>110.8</v>
+      </c>
+      <c r="BT85" t="n" s="10">
+        <v>111.1</v>
+      </c>
+      <c r="BU85" t="n" s="10">
+        <v>111.5</v>
       </c>
       <c r="BV85" t="s" s="10">
         <v>25</v>
@@ -20759,14 +20759,14 @@
       <c r="BR86" t="n" s="10">
         <v>108.4</v>
       </c>
-      <c r="BS86" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT86" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU86" t="s" s="10">
-        <v>25</v>
+      <c r="BS86" t="n" s="10">
+        <v>108.7</v>
+      </c>
+      <c r="BT86" t="n" s="10">
+        <v>109.0</v>
+      </c>
+      <c r="BU86" t="n" s="10">
+        <v>109.3</v>
       </c>
       <c r="BV86" t="s" s="10">
         <v>25</v>
@@ -20983,14 +20983,14 @@
       <c r="BR87" t="n" s="10">
         <v>107.7</v>
       </c>
-      <c r="BS87" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT87" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU87" t="s" s="10">
-        <v>25</v>
+      <c r="BS87" t="n" s="10">
+        <v>107.7</v>
+      </c>
+      <c r="BT87" t="n" s="10">
+        <v>108.3</v>
+      </c>
+      <c r="BU87" t="n" s="10">
+        <v>108.6</v>
       </c>
       <c r="BV87" t="s" s="10">
         <v>25</v>
@@ -21207,14 +21207,14 @@
       <c r="BR88" t="n" s="10">
         <v>110.0</v>
       </c>
-      <c r="BS88" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT88" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU88" t="s" s="10">
-        <v>25</v>
+      <c r="BS88" t="n" s="10">
+        <v>111.2</v>
+      </c>
+      <c r="BT88" t="n" s="10">
+        <v>112.2</v>
+      </c>
+      <c r="BU88" t="n" s="10">
+        <v>112.6</v>
       </c>
       <c r="BV88" t="s" s="10">
         <v>25</v>
@@ -21431,14 +21431,14 @@
       <c r="BR89" t="n" s="10">
         <v>101.8</v>
       </c>
-      <c r="BS89" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT89" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU89" t="s" s="10">
-        <v>25</v>
+      <c r="BS89" t="n" s="10">
+        <v>102.1</v>
+      </c>
+      <c r="BT89" t="n" s="10">
+        <v>102.9</v>
+      </c>
+      <c r="BU89" t="n" s="10">
+        <v>103.0</v>
       </c>
       <c r="BV89" t="s" s="10">
         <v>25</v>
@@ -21655,14 +21655,14 @@
       <c r="BR90" t="n" s="10">
         <v>106.3</v>
       </c>
-      <c r="BS90" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT90" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU90" t="s" s="10">
-        <v>25</v>
+      <c r="BS90" t="n" s="10">
+        <v>106.7</v>
+      </c>
+      <c r="BT90" t="n" s="10">
+        <v>106.7</v>
+      </c>
+      <c r="BU90" t="n" s="10">
+        <v>106.8</v>
       </c>
       <c r="BV90" t="s" s="10">
         <v>25</v>
@@ -21879,14 +21879,14 @@
       <c r="BR91" t="n" s="10">
         <v>108.4</v>
       </c>
-      <c r="BS91" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT91" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU91" t="s" s="10">
-        <v>25</v>
+      <c r="BS91" t="n" s="10">
+        <v>109.8</v>
+      </c>
+      <c r="BT91" t="n" s="10">
+        <v>109.9</v>
+      </c>
+      <c r="BU91" t="n" s="10">
+        <v>110.2</v>
       </c>
       <c r="BV91" t="s" s="10">
         <v>25</v>
@@ -22103,14 +22103,14 @@
       <c r="BR92" t="n" s="10">
         <v>111.8</v>
       </c>
-      <c r="BS92" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT92" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU92" t="s" s="10">
-        <v>25</v>
+      <c r="BS92" t="n" s="10">
+        <v>111.9</v>
+      </c>
+      <c r="BT92" t="n" s="10">
+        <v>112.4</v>
+      </c>
+      <c r="BU92" t="n" s="10">
+        <v>113.0</v>
       </c>
       <c r="BV92" t="s" s="10">
         <v>25</v>
@@ -22327,14 +22327,14 @@
       <c r="BR93" t="n" s="10">
         <v>127.1</v>
       </c>
-      <c r="BS93" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT93" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU93" t="s" s="10">
-        <v>25</v>
+      <c r="BS93" t="n" s="10">
+        <v>127.2</v>
+      </c>
+      <c r="BT93" t="n" s="10">
+        <v>127.2</v>
+      </c>
+      <c r="BU93" t="n" s="10">
+        <v>129.3</v>
       </c>
       <c r="BV93" t="s" s="10">
         <v>25</v>
@@ -22551,14 +22551,14 @@
       <c r="BR94" t="n" s="10">
         <v>120.2</v>
       </c>
-      <c r="BS94" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT94" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU94" t="s" s="10">
-        <v>25</v>
+      <c r="BS94" t="n" s="10">
+        <v>120.2</v>
+      </c>
+      <c r="BT94" t="n" s="10">
+        <v>120.2</v>
+      </c>
+      <c r="BU94" t="n" s="10">
+        <v>120.2</v>
       </c>
       <c r="BV94" t="s" s="10">
         <v>25</v>
@@ -22775,14 +22775,14 @@
       <c r="BR95" t="n" s="10">
         <v>116.7</v>
       </c>
-      <c r="BS95" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT95" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU95" t="s" s="10">
-        <v>25</v>
+      <c r="BS95" t="n" s="10">
+        <v>116.7</v>
+      </c>
+      <c r="BT95" t="n" s="10">
+        <v>116.7</v>
+      </c>
+      <c r="BU95" t="n" s="10">
+        <v>116.7</v>
       </c>
       <c r="BV95" t="s" s="10">
         <v>25</v>
@@ -22999,14 +22999,14 @@
       <c r="BR96" t="n" s="10">
         <v>107.5</v>
       </c>
-      <c r="BS96" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT96" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU96" t="s" s="10">
-        <v>25</v>
+      <c r="BS96" t="n" s="10">
+        <v>107.5</v>
+      </c>
+      <c r="BT96" t="n" s="10">
+        <v>107.8</v>
+      </c>
+      <c r="BU96" t="n" s="10">
+        <v>107.8</v>
       </c>
       <c r="BV96" t="s" s="10">
         <v>25</v>
@@ -23223,14 +23223,14 @@
       <c r="BR97" t="n" s="10">
         <v>107.3</v>
       </c>
-      <c r="BS97" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT97" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU97" t="s" s="10">
-        <v>25</v>
+      <c r="BS97" t="n" s="10">
+        <v>107.2</v>
+      </c>
+      <c r="BT97" t="n" s="10">
+        <v>107.3</v>
+      </c>
+      <c r="BU97" t="n" s="10">
+        <v>107.3</v>
       </c>
       <c r="BV97" t="s" s="10">
         <v>25</v>
@@ -23447,14 +23447,14 @@
       <c r="BR98" t="n" s="10">
         <v>109.3</v>
       </c>
-      <c r="BS98" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT98" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU98" t="s" s="10">
-        <v>25</v>
+      <c r="BS98" t="n" s="10">
+        <v>109.1</v>
+      </c>
+      <c r="BT98" t="n" s="10">
+        <v>109.6</v>
+      </c>
+      <c r="BU98" t="n" s="10">
+        <v>109.7</v>
       </c>
       <c r="BV98" t="s" s="10">
         <v>25</v>
@@ -23671,14 +23671,14 @@
       <c r="BR99" t="n" s="10">
         <v>114.7</v>
       </c>
-      <c r="BS99" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT99" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU99" t="s" s="10">
-        <v>25</v>
+      <c r="BS99" t="n" s="10">
+        <v>114.9</v>
+      </c>
+      <c r="BT99" t="n" s="10">
+        <v>115.4</v>
+      </c>
+      <c r="BU99" t="n" s="10">
+        <v>115.6</v>
       </c>
       <c r="BV99" t="s" s="10">
         <v>25</v>
@@ -23895,14 +23895,14 @@
       <c r="BR100" t="n" s="10">
         <v>113.4</v>
       </c>
-      <c r="BS100" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT100" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU100" t="s" s="10">
-        <v>25</v>
+      <c r="BS100" t="n" s="10">
+        <v>114.0</v>
+      </c>
+      <c r="BT100" t="n" s="10">
+        <v>114.1</v>
+      </c>
+      <c r="BU100" t="n" s="10">
+        <v>114.2</v>
       </c>
       <c r="BV100" t="s" s="10">
         <v>25</v>
@@ -24119,14 +24119,14 @@
       <c r="BR101" t="n" s="10">
         <v>140.9</v>
       </c>
-      <c r="BS101" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT101" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU101" t="s" s="10">
-        <v>25</v>
+      <c r="BS101" t="n" s="10">
+        <v>152.3</v>
+      </c>
+      <c r="BT101" t="n" s="10">
+        <v>168.2</v>
+      </c>
+      <c r="BU101" t="n" s="10">
+        <v>166.5</v>
       </c>
       <c r="BV101" t="s" s="10">
         <v>25</v>
@@ -24343,14 +24343,14 @@
       <c r="BR102" t="n" s="10">
         <v>106.4</v>
       </c>
-      <c r="BS102" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT102" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU102" t="s" s="10">
-        <v>25</v>
+      <c r="BS102" t="n" s="10">
+        <v>120.0</v>
+      </c>
+      <c r="BT102" t="n" s="10">
+        <v>141.5</v>
+      </c>
+      <c r="BU102" t="n" s="10">
+        <v>146.2</v>
       </c>
       <c r="BV102" t="s" s="10">
         <v>25</v>
@@ -24567,14 +24567,14 @@
       <c r="BR103" t="n" s="10">
         <v>97.2</v>
       </c>
-      <c r="BS103" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT103" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU103" t="s" s="10">
-        <v>25</v>
+      <c r="BS103" t="n" s="10">
+        <v>97.5</v>
+      </c>
+      <c r="BT103" t="n" s="10">
+        <v>100.2</v>
+      </c>
+      <c r="BU103" t="n" s="10">
+        <v>101.5</v>
       </c>
       <c r="BV103" t="s" s="10">
         <v>25</v>
@@ -24791,14 +24791,14 @@
       <c r="BR104" t="n" s="10">
         <v>110.2</v>
       </c>
-      <c r="BS104" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT104" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU104" t="s" s="10">
-        <v>25</v>
+      <c r="BS104" t="n" s="10">
+        <v>110.3</v>
+      </c>
+      <c r="BT104" t="n" s="10">
+        <v>110.4</v>
+      </c>
+      <c r="BU104" t="n" s="10">
+        <v>110.3</v>
       </c>
       <c r="BV104" t="s" s="10">
         <v>25</v>
@@ -25015,14 +25015,14 @@
       <c r="BR105" t="n" s="10">
         <v>184.4</v>
       </c>
-      <c r="BS105" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT105" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU105" t="s" s="10">
-        <v>25</v>
+      <c r="BS105" t="n" s="10">
+        <v>179.5</v>
+      </c>
+      <c r="BT105" t="n" s="10">
+        <v>178.2</v>
+      </c>
+      <c r="BU105" t="n" s="10">
+        <v>181.2</v>
       </c>
       <c r="BV105" t="s" s="10">
         <v>25</v>
@@ -25054,7 +25054,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 10:25:08&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:22:04&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>